--- a/test/results/01.BasicCodonUsage/NS2A/NS2A.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS2A/NS2A.RSCU.xlsx
@@ -253,16 +253,19 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>LC002520</t>
+    <t>KF383119</t>
+  </si>
+  <si>
+    <t>KF383118</t>
   </si>
   <si>
     <t>KU955594</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>LC002520</t>
   </si>
   <si>
-    <t>KF383118</t>
+    <t>KF383115</t>
   </si>
   <si>
     <t>KF268949</t>
@@ -271,19 +274,16 @@
     <t>KF268948</t>
   </si>
   <si>
-    <t>KF383115</t>
-  </si>
-  <si>
     <t>KF268950</t>
   </si>
   <si>
     <t>HQ234500</t>
   </si>
   <si>
-    <t>KF383116</t>
+    <t>HQ234501</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>KF383116</t>
   </si>
   <si>
     <t>KU955595</t>
@@ -301,10 +301,10 @@
     <t>KF383117</t>
   </si>
   <si>
-    <t>HQ234499</t>
+    <t>KU681082</t>
   </si>
   <si>
-    <t>KU681082</t>
+    <t>HQ234499</t>
   </si>
   <si>
     <t>EU545988</t>
@@ -313,10 +313,10 @@
     <t>KU955593</t>
   </si>
   <si>
-    <t>KX694532</t>
+    <t>KU681081</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX694532</t>
   </si>
   <si>
     <t>KX813683</t>
@@ -325,10 +325,10 @@
     <t>KX447517</t>
   </si>
   <si>
-    <t>KX197192</t>
+    <t>KU744693</t>
   </si>
   <si>
-    <t>KU744693</t>
+    <t>KX197192</t>
   </si>
   <si>
     <t>KU321639</t>
@@ -340,10 +340,10 @@
     <t>KU527068</t>
   </si>
   <si>
-    <t>KX838906</t>
+    <t>KX051563</t>
   </si>
   <si>
-    <t>KX051563</t>
+    <t>KX838906</t>
   </si>
   <si>
     <t>KX673530</t>
@@ -379,22 +379,22 @@
     <t>KU955590</t>
   </si>
   <si>
+    <t>KX766028</t>
+  </si>
+  <si>
     <t>KU740184</t>
   </si>
   <si>
-    <t>KX766028</t>
+    <t>KU761564</t>
   </si>
   <si>
-    <t>KU761564</t>
+    <t>KU820898</t>
   </si>
   <si>
     <t>KX087101</t>
   </si>
   <si>
     <t>KU365778</t>
-  </si>
-  <si>
-    <t>KU820898</t>
   </si>
   <si>
     <t>KU758877</t>
@@ -412,19 +412,19 @@
     <t>KU707826</t>
   </si>
   <si>
-    <t>KU365780</t>
+    <t>KU365777</t>
   </si>
   <si>
-    <t>KU365777</t>
+    <t>KU365780</t>
   </si>
   <si>
     <t>KU870645</t>
   </si>
   <si>
-    <t>KX262887</t>
+    <t>KX694534</t>
   </si>
   <si>
-    <t>KX694534</t>
+    <t>KX262887</t>
   </si>
   <si>
     <t>KU501217</t>
@@ -448,10 +448,10 @@
     <t>KU940228</t>
   </si>
   <si>
-    <t>KU729218</t>
+    <t>KX520666</t>
   </si>
   <si>
-    <t>KX520666</t>
+    <t>KU729218</t>
   </si>
   <si>
     <t>KX197205</t>
@@ -472,10 +472,10 @@
     <t>KU922923</t>
   </si>
   <si>
-    <t>KX198135</t>
+    <t>KU922960</t>
   </si>
   <si>
-    <t>KU922960</t>
+    <t>KX198135</t>
   </si>
   <si>
     <t>KX702400</t>
@@ -487,16 +487,16 @@
     <t>KX087102</t>
   </si>
   <si>
+    <t>KU820897</t>
+  </si>
+  <si>
     <t>KX156775</t>
   </si>
   <si>
-    <t>KU820897</t>
+    <t>KX156774</t>
   </si>
   <si>
     <t>KX156776</t>
-  </si>
-  <si>
-    <t>KX156774</t>
   </si>
   <si>
     <t>KX447510</t>
@@ -529,10 +529,10 @@
     <t>KU820899</t>
   </si>
   <si>
-    <t>KU963796</t>
+    <t>KX185891</t>
   </si>
   <si>
-    <t>KX185891</t>
+    <t>KU963796</t>
   </si>
   <si>
     <t>KX806557</t>
@@ -1201,16 +1201,16 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D4">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E4">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V4">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="W4">
         <v>0.6</v>
@@ -1270,22 +1270,22 @@
         <v>1.4</v>
       </c>
       <c r="Y4">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="Z4">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AB4">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AC4">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AD4">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -1294,16 +1294,16 @@
         <v>1</v>
       </c>
       <c r="AG4">
-        <v>2.86</v>
+        <v>2.67</v>
       </c>
       <c r="AH4">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AK4">
         <v>1</v>
@@ -1360,16 +1360,16 @@
         <v>1.43</v>
       </c>
       <c r="BC4">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="BD4">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="BE4">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1383,16 +1383,16 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D5">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E5">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1440,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V5">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="W5">
         <v>0.6</v>
@@ -1452,22 +1452,22 @@
         <v>1.4</v>
       </c>
       <c r="Y5">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="Z5">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AB5">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AC5">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AD5">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -1476,16 +1476,16 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>2.86</v>
+        <v>2.67</v>
       </c>
       <c r="AH5">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -1542,16 +1542,16 @@
         <v>1.43</v>
       </c>
       <c r="BC5">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="BD5">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="BE5">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1565,16 +1565,16 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="E6">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="W6">
         <v>0.6</v>
@@ -1634,22 +1634,22 @@
         <v>1.4</v>
       </c>
       <c r="Y6">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AA6">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AB6">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AC6">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AD6">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -1658,16 +1658,16 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="AH6">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -1724,16 +1724,16 @@
         <v>1.43</v>
       </c>
       <c r="BC6">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="BD6">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="BE6">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="BF6">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="E7">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="W7">
         <v>0.6</v>
@@ -1816,22 +1816,22 @@
         <v>1.4</v>
       </c>
       <c r="Y7">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AA7">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AB7">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AC7">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AD7">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -1840,16 +1840,16 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="AH7">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AK7">
         <v>1</v>
@@ -1906,16 +1906,16 @@
         <v>1.43</v>
       </c>
       <c r="BC7">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="BD7">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="BE7">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="BF7">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -1932,13 +1932,13 @@
         <v>1.2</v>
       </c>
       <c r="C8">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
         <v>0.27</v>
       </c>
       <c r="E8">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1959,19 +1959,19 @@
         <v>0.5</v>
       </c>
       <c r="L8">
-        <v>0.89</v>
+        <v>1.56</v>
       </c>
       <c r="M8">
-        <v>1.11</v>
+        <v>0.44</v>
       </c>
       <c r="N8">
-        <v>2.11</v>
+        <v>2.32</v>
       </c>
       <c r="O8">
         <v>0.42</v>
       </c>
       <c r="P8">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="Q8">
         <v>0.63</v>
@@ -1983,37 +1983,37 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="U8">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="W8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="X8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Y8">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="Z8">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AB8">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AC8">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2025,13 +2025,13 @@
         <v>2.67</v>
       </c>
       <c r="AH8">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -2058,13 +2058,13 @@
         <v>0.55</v>
       </c>
       <c r="AS8">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AT8">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="AU8">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="AV8">
         <v>0.92</v>
@@ -2073,28 +2073,28 @@
         <v>0.46</v>
       </c>
       <c r="AX8">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="AY8">
         <v>1.43</v>
       </c>
       <c r="AZ8">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="BA8">
         <v>0.29</v>
       </c>
       <c r="BB8">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="BC8">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="BD8">
-        <v>1.14</v>
+        <v>0.95</v>
       </c>
       <c r="BE8">
-        <v>2.1</v>
+        <v>2.67</v>
       </c>
       <c r="BF8">
         <v>0.19</v>
@@ -2141,22 +2141,22 @@
         <v>0.5</v>
       </c>
       <c r="L9">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="M9">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="N9">
         <v>2.11</v>
       </c>
       <c r="O9">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="P9">
         <v>0.84</v>
       </c>
       <c r="Q9">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="R9">
         <v>2</v>
@@ -2165,37 +2165,37 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="U9">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="V9">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="W9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="X9">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Y9">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="Z9">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AB9">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AC9">
         <v>0.29</v>
       </c>
       <c r="AD9">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2240,46 +2240,46 @@
         <v>0.55</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AT9">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AW9">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AY9">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AZ9">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="BB9">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="BC9">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="BE9">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="BF9">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>1.2</v>
       </c>
       <c r="C10">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="D10">
         <v>0.27</v>
       </c>
       <c r="E10">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0.5</v>
       </c>
       <c r="L10">
-        <v>1.56</v>
+        <v>0.67</v>
       </c>
       <c r="M10">
-        <v>0.44</v>
+        <v>1.33</v>
       </c>
       <c r="N10">
-        <v>2.32</v>
+        <v>2.11</v>
       </c>
       <c r="O10">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="P10">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="Q10">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -2350,10 +2350,10 @@
         <v>0.5</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="V10">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="W10">
         <v>0.6</v>
@@ -2362,22 +2362,22 @@
         <v>1.4</v>
       </c>
       <c r="Y10">
-        <v>1.05</v>
+        <v>0.57</v>
       </c>
       <c r="Z10">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AA10">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AB10">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AD10">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -2389,13 +2389,13 @@
         <v>2.67</v>
       </c>
       <c r="AH10">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -2422,46 +2422,46 @@
         <v>0.55</v>
       </c>
       <c r="AS10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
-        <v>1.85</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AX10">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AZ10">
         <v>0.86</v>
       </c>
       <c r="BA10">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BB10">
         <v>1.43</v>
       </c>
       <c r="BC10">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="BD10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="BE10">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="BF10">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>1.2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2908,16 +2908,16 @@
         <v>1.2</v>
       </c>
       <c r="Y13">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="Z13">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="AA13">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="AB13">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="AC13">
         <v>0.29</v>
@@ -2953,7 +2953,7 @@
         <v>2.73</v>
       </c>
       <c r="AN13">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AO13">
         <v>0.55</v>
@@ -2962,7 +2962,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ13">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AR13">
         <v>0.55</v>
@@ -2977,13 +2977,13 @@
         <v>1.38</v>
       </c>
       <c r="AV13">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AW13">
         <v>0.46</v>
       </c>
       <c r="AX13">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="AY13">
         <v>1.71</v>
@@ -3033,10 +3033,10 @@
         <v>1.2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3090,16 +3090,16 @@
         <v>1.2</v>
       </c>
       <c r="Y14">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="Z14">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="AA14">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="AB14">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="AC14">
         <v>0.29</v>
@@ -3135,17 +3135,17 @@
         <v>2.73</v>
       </c>
       <c r="AN14">
+        <v>0.55</v>
+      </c>
+      <c r="AO14">
+        <v>0.55</v>
+      </c>
+      <c r="AP14">
+        <v>0.55</v>
+      </c>
+      <c r="AQ14">
         <v>1.09</v>
       </c>
-      <c r="AO14">
-        <v>0.55</v>
-      </c>
-      <c r="AP14">
-        <v>0.55</v>
-      </c>
-      <c r="AQ14">
-        <v>0.55</v>
-      </c>
       <c r="AR14">
         <v>0.55</v>
       </c>
@@ -3159,13 +3159,13 @@
         <v>1.38</v>
       </c>
       <c r="AV14">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="AW14">
         <v>0.46</v>
       </c>
       <c r="AX14">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="AY14">
         <v>1.71</v>
@@ -4119,10 +4119,10 @@
         <v>1.1</v>
       </c>
       <c r="D20">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="E20">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4152,13 +4152,13 @@
         <v>1.68</v>
       </c>
       <c r="O20">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="P20">
         <v>1.05</v>
       </c>
       <c r="Q20">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="R20">
         <v>1.33</v>
@@ -4188,7 +4188,7 @@
         <v>0.71</v>
       </c>
       <c r="AA20">
-        <v>2.86</v>
+        <v>2.57</v>
       </c>
       <c r="AB20">
         <v>0.86</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AE20">
         <v>1.33</v>
@@ -4209,13 +4209,13 @@
         <v>2</v>
       </c>
       <c r="AH20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AI20">
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AK20">
         <v>1</v>
@@ -4230,14 +4230,14 @@
         <v>1.09</v>
       </c>
       <c r="AO20">
+        <v>0.55</v>
+      </c>
+      <c r="AP20">
+        <v>0.55</v>
+      </c>
+      <c r="AQ20">
         <v>1.09</v>
       </c>
-      <c r="AP20">
-        <v>0.55</v>
-      </c>
-      <c r="AQ20">
-        <v>0.55</v>
-      </c>
       <c r="AR20">
         <v>0.55</v>
       </c>
@@ -4251,37 +4251,37 @@
         <v>1.38</v>
       </c>
       <c r="AV20">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="AW20">
         <v>0.46</v>
       </c>
       <c r="AX20">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="AY20">
         <v>1.6</v>
       </c>
       <c r="AZ20">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="BA20">
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="BC20">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="BD20">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="BE20">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BF20">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -4301,10 +4301,10 @@
         <v>1.1</v>
       </c>
       <c r="D21">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E21">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -4334,13 +4334,13 @@
         <v>1.68</v>
       </c>
       <c r="O21">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="P21">
         <v>1.05</v>
       </c>
       <c r="Q21">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="R21">
         <v>1.33</v>
@@ -4370,7 +4370,7 @@
         <v>0.71</v>
       </c>
       <c r="AA21">
-        <v>2.57</v>
+        <v>2.86</v>
       </c>
       <c r="AB21">
         <v>0.86</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AE21">
         <v>1.33</v>
@@ -4391,13 +4391,13 @@
         <v>2</v>
       </c>
       <c r="AH21">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AI21">
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AK21">
         <v>1</v>
@@ -4412,13 +4412,13 @@
         <v>1.09</v>
       </c>
       <c r="AO21">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AP21">
         <v>0.55</v>
       </c>
       <c r="AQ21">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AR21">
         <v>0.55</v>
@@ -4433,37 +4433,37 @@
         <v>1.38</v>
       </c>
       <c r="AV21">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="AW21">
         <v>0.46</v>
       </c>
       <c r="AX21">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AY21">
         <v>1.6</v>
       </c>
       <c r="AZ21">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="BA21">
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="BC21">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="BD21">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="BE21">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BF21">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -4841,10 +4841,10 @@
         <v>99</v>
       </c>
       <c r="B24">
+        <v>0.83</v>
+      </c>
+      <c r="C24">
         <v>0.97</v>
-      </c>
-      <c r="C24">
-        <v>0.83</v>
       </c>
       <c r="D24">
         <v>0.97</v>
@@ -4853,16 +4853,16 @@
         <v>1.24</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
+        <v>0.86</v>
+      </c>
+      <c r="I24">
         <v>1.14</v>
-      </c>
-      <c r="I24">
-        <v>0.86</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -4871,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="M24">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="N24">
         <v>1.68</v>
@@ -4895,13 +4895,13 @@
         <v>0.67</v>
       </c>
       <c r="T24">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="U24">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="V24">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="W24">
         <v>0.4</v>
@@ -4916,7 +4916,7 @@
         <v>0.71</v>
       </c>
       <c r="AA24">
-        <v>3.14</v>
+        <v>2.86</v>
       </c>
       <c r="AB24">
         <v>0.86</v>
@@ -4925,13 +4925,13 @@
         <v>0.14</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AE24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AF24">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AG24">
         <v>2.67</v>
@@ -5000,16 +5000,16 @@
         <v>1.33</v>
       </c>
       <c r="BC24">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="BD24">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="BF24">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -5023,10 +5023,10 @@
         <v>100</v>
       </c>
       <c r="B25">
+        <v>0.97</v>
+      </c>
+      <c r="C25">
         <v>0.83</v>
-      </c>
-      <c r="C25">
-        <v>0.97</v>
       </c>
       <c r="D25">
         <v>0.97</v>
@@ -5035,16 +5035,16 @@
         <v>1.24</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
+        <v>1.14</v>
+      </c>
+      <c r="I25">
         <v>0.86</v>
-      </c>
-      <c r="I25">
-        <v>1.14</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -5053,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="M25">
-        <v>1.11</v>
+        <v>0.67</v>
       </c>
       <c r="N25">
         <v>1.68</v>
@@ -5077,13 +5077,13 @@
         <v>0.67</v>
       </c>
       <c r="T25">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="U25">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="V25">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="W25">
         <v>0.4</v>
@@ -5098,7 +5098,7 @@
         <v>0.71</v>
       </c>
       <c r="AA25">
-        <v>2.86</v>
+        <v>3.14</v>
       </c>
       <c r="AB25">
         <v>0.86</v>
@@ -5107,13 +5107,13 @@
         <v>0.14</v>
       </c>
       <c r="AD25">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AF25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AG25">
         <v>2.67</v>
@@ -5182,16 +5182,16 @@
         <v>1.33</v>
       </c>
       <c r="BC25">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="BD25">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="BE25">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="BF25">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -5605,13 +5605,13 @@
         <v>0.89</v>
       </c>
       <c r="N28">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="O28">
         <v>0.84</v>
       </c>
       <c r="P28">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="Q28">
         <v>0.42</v>
@@ -5650,10 +5650,10 @@
         <v>0.86</v>
       </c>
       <c r="AC28">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="AD28">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AE28">
         <v>1.33</v>
@@ -5787,13 +5787,13 @@
         <v>0.89</v>
       </c>
       <c r="N29">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="O29">
         <v>0.84</v>
       </c>
       <c r="P29">
-        <v>0.84</v>
+        <v>1.05</v>
       </c>
       <c r="Q29">
         <v>0.42</v>
@@ -5832,10 +5832,10 @@
         <v>0.86</v>
       </c>
       <c r="AC29">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AD29">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AE29">
         <v>1.33</v>
@@ -6515,16 +6515,16 @@
         <v>0.89</v>
       </c>
       <c r="N33">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="O33">
-        <v>0.84</v>
+        <v>1.05</v>
       </c>
       <c r="P33">
-        <v>0.84</v>
+        <v>1.05</v>
       </c>
       <c r="Q33">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="R33">
         <v>1.33</v>
@@ -6566,10 +6566,10 @@
         <v>1.29</v>
       </c>
       <c r="AE33">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AF33">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AG33">
         <v>2.67</v>
@@ -6590,10 +6590,10 @@
         <v>1</v>
       </c>
       <c r="AM33">
-        <v>2.73</v>
+        <v>2.18</v>
       </c>
       <c r="AN33">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AO33">
         <v>0.55</v>
@@ -6608,22 +6608,22 @@
         <v>0.55</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AU33">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AV33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AW33">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AX33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AY33">
         <v>1.6</v>
@@ -6697,16 +6697,16 @@
         <v>0.89</v>
       </c>
       <c r="N34">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="O34">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="P34">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="Q34">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="R34">
         <v>1.33</v>
@@ -6748,10 +6748,10 @@
         <v>1.29</v>
       </c>
       <c r="AE34">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AF34">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AG34">
         <v>2.67</v>
@@ -6772,10 +6772,10 @@
         <v>1</v>
       </c>
       <c r="AM34">
-        <v>2.18</v>
+        <v>2.73</v>
       </c>
       <c r="AN34">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AO34">
         <v>0.55</v>
@@ -6790,22 +6790,22 @@
         <v>0.55</v>
       </c>
       <c r="AS34">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AT34">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AU34">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AV34">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AW34">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AX34">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AY34">
         <v>1.6</v>
@@ -8848,13 +8848,13 @@
         <v>0.83</v>
       </c>
       <c r="C46">
-        <v>0.97</v>
+        <v>1.1</v>
       </c>
       <c r="D46">
         <v>0.97</v>
       </c>
       <c r="E46">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>0.71</v>
       </c>
       <c r="AA46">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="AB46">
         <v>0.86</v>
@@ -8929,7 +8929,7 @@
         <v>0.29</v>
       </c>
       <c r="AD46">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AE46">
         <v>1.33</v>
@@ -8983,13 +8983,13 @@
         <v>1.38</v>
       </c>
       <c r="AV46">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="AW46">
         <v>0.46</v>
       </c>
       <c r="AX46">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="AY46">
         <v>1.6</v>
@@ -9030,13 +9030,13 @@
         <v>0.83</v>
       </c>
       <c r="C47">
-        <v>1.1</v>
+        <v>0.97</v>
       </c>
       <c r="D47">
         <v>0.97</v>
       </c>
       <c r="E47">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -9102,7 +9102,7 @@
         <v>0.71</v>
       </c>
       <c r="AA47">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="AB47">
         <v>0.86</v>
@@ -9111,7 +9111,7 @@
         <v>0.29</v>
       </c>
       <c r="AD47">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AE47">
         <v>1.33</v>
@@ -9165,13 +9165,13 @@
         <v>1.38</v>
       </c>
       <c r="AV47">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AW47">
         <v>0.46</v>
       </c>
       <c r="AX47">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="AY47">
         <v>1.6</v>
@@ -9445,13 +9445,13 @@
         <v>0.67</v>
       </c>
       <c r="T49">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="U49">
-        <v>2.14</v>
+        <v>2.31</v>
       </c>
       <c r="V49">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="W49">
         <v>0.4</v>
@@ -9472,10 +9472,10 @@
         <v>0.86</v>
       </c>
       <c r="AC49">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="AD49">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AE49">
         <v>1.33</v>
@@ -9550,16 +9550,16 @@
         <v>1.33</v>
       </c>
       <c r="BC49">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="BD49">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="BE49">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="BF49">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="BG49">
         <v>0</v>
@@ -9654,10 +9654,10 @@
         <v>0.86</v>
       </c>
       <c r="AC50">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AD50">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AE50">
         <v>1.33</v>
@@ -9809,13 +9809,13 @@
         <v>0.67</v>
       </c>
       <c r="T51">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="U51">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="V51">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="W51">
         <v>0.4</v>
@@ -9914,16 +9914,16 @@
         <v>1.33</v>
       </c>
       <c r="BC51">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="BD51">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="BE51">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="BF51">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="BG51">
         <v>0</v>
@@ -11429,16 +11429,16 @@
         <v>0.89</v>
       </c>
       <c r="N60">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="P60">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="Q60">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="R60">
         <v>1.33</v>
@@ -11504,22 +11504,22 @@
         <v>1</v>
       </c>
       <c r="AM60">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AN60">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ60">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AS60">
         <v>0.92</v>
@@ -11611,16 +11611,16 @@
         <v>0.89</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="O61">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="P61">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="Q61">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="R61">
         <v>1.33</v>
@@ -11686,22 +11686,22 @@
         <v>1</v>
       </c>
       <c r="AM61">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AN61">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AO61">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AP61">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR61">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AS61">
         <v>0.92</v>
@@ -13031,16 +13031,16 @@
         <v>144</v>
       </c>
       <c r="B69">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="C69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="E69">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -13106,7 +13106,7 @@
         <v>0.71</v>
       </c>
       <c r="AA69">
-        <v>2.86</v>
+        <v>2.71</v>
       </c>
       <c r="AB69">
         <v>0.86</v>
@@ -13115,7 +13115,7 @@
         <v>0.14</v>
       </c>
       <c r="AD69">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AE69">
         <v>1.33</v>
@@ -13190,16 +13190,16 @@
         <v>1.33</v>
       </c>
       <c r="BC69">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="BD69">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="BE69">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="BF69">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="BG69">
         <v>0</v>
@@ -13213,16 +13213,16 @@
         <v>145</v>
       </c>
       <c r="B70">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D70">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="E70">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -13288,7 +13288,7 @@
         <v>0.71</v>
       </c>
       <c r="AA70">
-        <v>2.71</v>
+        <v>2.86</v>
       </c>
       <c r="AB70">
         <v>0.86</v>
@@ -13297,7 +13297,7 @@
         <v>0.14</v>
       </c>
       <c r="AD70">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AE70">
         <v>1.33</v>
@@ -13372,16 +13372,16 @@
         <v>1.33</v>
       </c>
       <c r="BC70">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="BD70">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="BE70">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="BF70">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="BG70">
         <v>0</v>
@@ -14490,13 +14490,13 @@
         <v>0.83</v>
       </c>
       <c r="C77">
-        <v>1.1</v>
+        <v>0.97</v>
       </c>
       <c r="D77">
         <v>0.97</v>
       </c>
       <c r="E77">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -14511,10 +14511,10 @@
         <v>0.86</v>
       </c>
       <c r="J77">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <v>1.11</v>
@@ -14541,13 +14541,13 @@
         <v>0.67</v>
       </c>
       <c r="T77">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="U77">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="V77">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="W77">
         <v>0.4</v>
@@ -14625,25 +14625,25 @@
         <v>1.38</v>
       </c>
       <c r="AV77">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="AW77">
         <v>0.46</v>
       </c>
       <c r="AX77">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="AY77">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AZ77">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="BA77">
         <v>0</v>
       </c>
       <c r="BB77">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BC77">
         <v>0.67</v>
@@ -14672,13 +14672,13 @@
         <v>0.83</v>
       </c>
       <c r="C78">
-        <v>0.97</v>
+        <v>1.1</v>
       </c>
       <c r="D78">
         <v>0.97</v>
       </c>
       <c r="E78">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -14693,10 +14693,10 @@
         <v>0.86</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L78">
         <v>1.11</v>
@@ -14723,13 +14723,13 @@
         <v>0.67</v>
       </c>
       <c r="T78">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="U78">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="V78">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="W78">
         <v>0.4</v>
@@ -14807,25 +14807,25 @@
         <v>1.38</v>
       </c>
       <c r="AV78">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="AW78">
         <v>0.46</v>
       </c>
       <c r="AX78">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AY78">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AZ78">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="BA78">
         <v>0</v>
       </c>
       <c r="BB78">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BC78">
         <v>0.67</v>
@@ -15397,13 +15397,13 @@
         <v>157</v>
       </c>
       <c r="B82">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="C82">
         <v>0.97</v>
       </c>
       <c r="D82">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="E82">
         <v>1.24</v>
@@ -15535,13 +15535,13 @@
         <v>1.38</v>
       </c>
       <c r="AV82">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="AW82">
         <v>0.46</v>
       </c>
       <c r="AX82">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="AY82">
         <v>1.6</v>
@@ -15556,13 +15556,13 @@
         <v>1.33</v>
       </c>
       <c r="BC82">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
       <c r="BD82">
         <v>0.67</v>
       </c>
       <c r="BE82">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="BF82">
         <v>0.67</v>
@@ -15579,13 +15579,13 @@
         <v>158</v>
       </c>
       <c r="B83">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="C83">
         <v>0.97</v>
       </c>
       <c r="D83">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E83">
         <v>1.24</v>
@@ -15717,13 +15717,13 @@
         <v>1.38</v>
       </c>
       <c r="AV83">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AW83">
         <v>0.46</v>
       </c>
       <c r="AX83">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="AY83">
         <v>1.6</v>
@@ -15738,13 +15738,13 @@
         <v>1.33</v>
       </c>
       <c r="BC83">
-        <v>0.67</v>
+        <v>0.44</v>
       </c>
       <c r="BD83">
         <v>0.67</v>
       </c>
       <c r="BE83">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="BF83">
         <v>0.67</v>

--- a/test/results/01.BasicCodonUsage/NS2A/NS2A.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS2A/NS2A.RSCU.xlsx
@@ -256,13 +256,13 @@
     <t>KF383119</t>
   </si>
   <si>
-    <t>KF383118</t>
+    <t>LC002520</t>
   </si>
   <si>
     <t>KU955594</t>
   </si>
   <si>
-    <t>LC002520</t>
+    <t>KF383118</t>
   </si>
   <si>
     <t>KF383115</t>
@@ -280,31 +280,31 @@
     <t>HQ234500</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>KU955595</t>
   </si>
   <si>
     <t>KF383116</t>
   </si>
   <si>
-    <t>KU955595</t>
+    <t>HQ234501</t>
   </si>
   <si>
     <t>KU955592</t>
   </si>
   <si>
-    <t>KU955591</t>
+    <t>KX601166</t>
   </si>
   <si>
-    <t>KX601166</t>
+    <t>KU955591</t>
   </si>
   <si>
     <t>KF383117</t>
   </si>
   <si>
-    <t>KU681082</t>
+    <t>HQ234499</t>
   </si>
   <si>
-    <t>HQ234499</t>
+    <t>KU681082</t>
   </si>
   <si>
     <t>EU545988</t>
@@ -313,10 +313,10 @@
     <t>KU955593</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX694532</t>
   </si>
   <si>
-    <t>KX694532</t>
+    <t>KU681081</t>
   </si>
   <si>
     <t>KX813683</t>
@@ -397,10 +397,10 @@
     <t>KU365778</t>
   </si>
   <si>
-    <t>KU758877</t>
+    <t>KU937936</t>
   </si>
   <si>
-    <t>KU937936</t>
+    <t>KU758877</t>
   </si>
   <si>
     <t>KU312312</t>
@@ -409,10 +409,10 @@
     <t>KU365779</t>
   </si>
   <si>
-    <t>KU707826</t>
+    <t>KU365777</t>
   </si>
   <si>
-    <t>KU365777</t>
+    <t>KU707826</t>
   </si>
   <si>
     <t>KU365780</t>
@@ -424,10 +424,10 @@
     <t>KX694534</t>
   </si>
   <si>
-    <t>KX262887</t>
+    <t>KU501217</t>
   </si>
   <si>
-    <t>KU501217</t>
+    <t>KX262887</t>
   </si>
   <si>
     <t>KU501216</t>
@@ -436,10 +436,10 @@
     <t>KX766029</t>
   </si>
   <si>
-    <t>KX446950</t>
+    <t>KX247632</t>
   </si>
   <si>
-    <t>KX247632</t>
+    <t>KX446950</t>
   </si>
   <si>
     <t>KX446951</t>
@@ -463,10 +463,10 @@
     <t>KU991811</t>
   </si>
   <si>
-    <t>KU647676</t>
+    <t>KX548902</t>
   </si>
   <si>
-    <t>KX548902</t>
+    <t>KU647676</t>
   </si>
   <si>
     <t>KU922923</t>
@@ -487,10 +487,10 @@
     <t>KX087102</t>
   </si>
   <si>
-    <t>KU820897</t>
+    <t>KX156775</t>
   </si>
   <si>
-    <t>KX156775</t>
+    <t>KU820897</t>
   </si>
   <si>
     <t>KX156774</t>
@@ -499,10 +499,10 @@
     <t>KX156776</t>
   </si>
   <si>
-    <t>KX447510</t>
+    <t>KX447511</t>
   </si>
   <si>
-    <t>KX447511</t>
+    <t>KX447510</t>
   </si>
   <si>
     <t>KX369547</t>
@@ -541,16 +541,16 @@
     <t>KJ776791</t>
   </si>
   <si>
+    <t>KX447515</t>
+  </si>
+  <si>
     <t>KX447516</t>
   </si>
   <si>
-    <t>KX447515</t>
+    <t>KX447509</t>
   </si>
   <si>
     <t>KX447514</t>
-  </si>
-  <si>
-    <t>KX447509</t>
   </si>
 </sst>
 </file>
@@ -1383,16 +1383,16 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="E5">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1440,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="W5">
         <v>0.6</v>
@@ -1452,22 +1452,22 @@
         <v>1.4</v>
       </c>
       <c r="Y5">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AA5">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AB5">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AC5">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AD5">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -1476,16 +1476,16 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="AH5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -1542,16 +1542,16 @@
         <v>1.43</v>
       </c>
       <c r="BC5">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="BD5">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="BE5">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="BF5">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D7">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E7">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V7">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="W7">
         <v>0.6</v>
@@ -1816,22 +1816,22 @@
         <v>1.4</v>
       </c>
       <c r="Y7">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="Z7">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AB7">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AC7">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AD7">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -1840,16 +1840,16 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>2.86</v>
+        <v>2.67</v>
       </c>
       <c r="AH7">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AK7">
         <v>1</v>
@@ -1906,16 +1906,16 @@
         <v>1.43</v>
       </c>
       <c r="BC7">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="BD7">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="BE7">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>1.07</v>
       </c>
       <c r="C13">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="D13">
         <v>0.4</v>
       </c>
       <c r="E13">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2911,13 +2911,13 @@
         <v>0.59</v>
       </c>
       <c r="Z13">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="AA13">
         <v>1.9</v>
       </c>
       <c r="AB13">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="AC13">
         <v>0.29</v>
@@ -2998,13 +2998,13 @@
         <v>1.43</v>
       </c>
       <c r="BC13">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="BD13">
         <v>0.76</v>
       </c>
       <c r="BE13">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="BF13">
         <v>0.57</v>
@@ -3206,13 +3206,13 @@
         <v>1.07</v>
       </c>
       <c r="C15">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="D15">
         <v>0.4</v>
       </c>
       <c r="E15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3275,13 +3275,13 @@
         <v>0.59</v>
       </c>
       <c r="Z15">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="AA15">
         <v>1.9</v>
       </c>
       <c r="AB15">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="AC15">
         <v>0.29</v>
@@ -3362,13 +3362,13 @@
         <v>1.43</v>
       </c>
       <c r="BC15">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="BD15">
         <v>0.76</v>
       </c>
       <c r="BE15">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="BF15">
         <v>0.57</v>
@@ -4119,10 +4119,10 @@
         <v>1.1</v>
       </c>
       <c r="D20">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E20">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4152,13 +4152,13 @@
         <v>1.68</v>
       </c>
       <c r="O20">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="P20">
         <v>1.05</v>
       </c>
       <c r="Q20">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="R20">
         <v>1.33</v>
@@ -4188,7 +4188,7 @@
         <v>0.71</v>
       </c>
       <c r="AA20">
-        <v>2.57</v>
+        <v>2.86</v>
       </c>
       <c r="AB20">
         <v>0.86</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AE20">
         <v>1.33</v>
@@ -4209,13 +4209,13 @@
         <v>2</v>
       </c>
       <c r="AH20">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AI20">
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AK20">
         <v>1</v>
@@ -4230,13 +4230,13 @@
         <v>1.09</v>
       </c>
       <c r="AO20">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AP20">
         <v>0.55</v>
       </c>
       <c r="AQ20">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AR20">
         <v>0.55</v>
@@ -4251,37 +4251,37 @@
         <v>1.38</v>
       </c>
       <c r="AV20">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="AW20">
         <v>0.46</v>
       </c>
       <c r="AX20">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AY20">
         <v>1.6</v>
       </c>
       <c r="AZ20">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="BA20">
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="BC20">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="BD20">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="BE20">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BF20">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -4301,10 +4301,10 @@
         <v>1.1</v>
       </c>
       <c r="D21">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="E21">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -4334,13 +4334,13 @@
         <v>1.68</v>
       </c>
       <c r="O21">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="P21">
         <v>1.05</v>
       </c>
       <c r="Q21">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="R21">
         <v>1.33</v>
@@ -4370,7 +4370,7 @@
         <v>0.71</v>
       </c>
       <c r="AA21">
-        <v>2.86</v>
+        <v>2.57</v>
       </c>
       <c r="AB21">
         <v>0.86</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AE21">
         <v>1.33</v>
@@ -4391,13 +4391,13 @@
         <v>2</v>
       </c>
       <c r="AH21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AI21">
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AK21">
         <v>1</v>
@@ -4412,14 +4412,14 @@
         <v>1.09</v>
       </c>
       <c r="AO21">
+        <v>0.55</v>
+      </c>
+      <c r="AP21">
+        <v>0.55</v>
+      </c>
+      <c r="AQ21">
         <v>1.09</v>
       </c>
-      <c r="AP21">
-        <v>0.55</v>
-      </c>
-      <c r="AQ21">
-        <v>0.55</v>
-      </c>
       <c r="AR21">
         <v>0.55</v>
       </c>
@@ -4433,37 +4433,37 @@
         <v>1.38</v>
       </c>
       <c r="AV21">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="AW21">
         <v>0.46</v>
       </c>
       <c r="AX21">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="AY21">
         <v>1.6</v>
       </c>
       <c r="AZ21">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="BA21">
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="BC21">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="BD21">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="BE21">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BF21">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -4841,10 +4841,10 @@
         <v>99</v>
       </c>
       <c r="B24">
+        <v>0.97</v>
+      </c>
+      <c r="C24">
         <v>0.83</v>
-      </c>
-      <c r="C24">
-        <v>0.97</v>
       </c>
       <c r="D24">
         <v>0.97</v>
@@ -4853,16 +4853,16 @@
         <v>1.24</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
+        <v>1.14</v>
+      </c>
+      <c r="I24">
         <v>0.86</v>
-      </c>
-      <c r="I24">
-        <v>1.14</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -4871,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="M24">
-        <v>1.11</v>
+        <v>0.67</v>
       </c>
       <c r="N24">
         <v>1.68</v>
@@ -4895,13 +4895,13 @@
         <v>0.67</v>
       </c>
       <c r="T24">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="U24">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="V24">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="W24">
         <v>0.4</v>
@@ -4916,7 +4916,7 @@
         <v>0.71</v>
       </c>
       <c r="AA24">
-        <v>2.86</v>
+        <v>3.14</v>
       </c>
       <c r="AB24">
         <v>0.86</v>
@@ -4925,13 +4925,13 @@
         <v>0.14</v>
       </c>
       <c r="AD24">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AF24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AG24">
         <v>2.67</v>
@@ -5000,16 +5000,16 @@
         <v>1.33</v>
       </c>
       <c r="BC24">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="BD24">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="BE24">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="BF24">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -5023,10 +5023,10 @@
         <v>100</v>
       </c>
       <c r="B25">
+        <v>0.83</v>
+      </c>
+      <c r="C25">
         <v>0.97</v>
-      </c>
-      <c r="C25">
-        <v>0.83</v>
       </c>
       <c r="D25">
         <v>0.97</v>
@@ -5035,16 +5035,16 @@
         <v>1.24</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
+        <v>0.86</v>
+      </c>
+      <c r="I25">
         <v>1.14</v>
-      </c>
-      <c r="I25">
-        <v>0.86</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -5053,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="M25">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="N25">
         <v>1.68</v>
@@ -5077,13 +5077,13 @@
         <v>0.67</v>
       </c>
       <c r="T25">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="U25">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="V25">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="W25">
         <v>0.4</v>
@@ -5098,7 +5098,7 @@
         <v>0.71</v>
       </c>
       <c r="AA25">
-        <v>3.14</v>
+        <v>2.86</v>
       </c>
       <c r="AB25">
         <v>0.86</v>
@@ -5107,13 +5107,13 @@
         <v>0.14</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AE25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AF25">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AG25">
         <v>2.67</v>
@@ -5182,16 +5182,16 @@
         <v>1.33</v>
       </c>
       <c r="BC25">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="BD25">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="BF25">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -10000,10 +10000,10 @@
         <v>0.21</v>
       </c>
       <c r="W52">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="X52">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="Y52">
         <v>0.14</v>
@@ -10012,7 +10012,7 @@
         <v>0.71</v>
       </c>
       <c r="AA52">
-        <v>2.86</v>
+        <v>2.71</v>
       </c>
       <c r="AB52">
         <v>0.86</v>
@@ -10021,7 +10021,7 @@
         <v>0.14</v>
       </c>
       <c r="AD52">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AE52">
         <v>1.33</v>
@@ -10048,22 +10048,22 @@
         <v>1</v>
       </c>
       <c r="AM52">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AN52">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AO52">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR52">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AS52">
         <v>0.92</v>
@@ -10182,10 +10182,10 @@
         <v>0.21</v>
       </c>
       <c r="W53">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="X53">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="Y53">
         <v>0.14</v>
@@ -10194,7 +10194,7 @@
         <v>0.71</v>
       </c>
       <c r="AA53">
-        <v>2.71</v>
+        <v>2.86</v>
       </c>
       <c r="AB53">
         <v>0.86</v>
@@ -10203,7 +10203,7 @@
         <v>0.14</v>
       </c>
       <c r="AD53">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AE53">
         <v>1.33</v>
@@ -10230,22 +10230,22 @@
         <v>1</v>
       </c>
       <c r="AM53">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AN53">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AO53">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ53">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AS53">
         <v>0.92</v>
@@ -13995,19 +13995,19 @@
         <v>0.67</v>
       </c>
       <c r="T74">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="U74">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="V74">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="W74">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="X74">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="Y74">
         <v>0.14</v>
@@ -14016,7 +14016,7 @@
         <v>0.71</v>
       </c>
       <c r="AA74">
-        <v>2.86</v>
+        <v>2.71</v>
       </c>
       <c r="AB74">
         <v>0.86</v>
@@ -14025,7 +14025,7 @@
         <v>0.14</v>
       </c>
       <c r="AD74">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AE74">
         <v>1.33</v>
@@ -14052,22 +14052,22 @@
         <v>1</v>
       </c>
       <c r="AM74">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="AN74">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AO74">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AP74">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AQ74">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AR74">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AS74">
         <v>0.92</v>
@@ -14088,16 +14088,16 @@
         <v>1.38</v>
       </c>
       <c r="AY74">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AZ74">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="BA74">
         <v>0</v>
       </c>
       <c r="BB74">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BC74">
         <v>0.67</v>
@@ -14177,19 +14177,19 @@
         <v>0.67</v>
       </c>
       <c r="T75">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="U75">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="V75">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="W75">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="X75">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="Y75">
         <v>0.14</v>
@@ -14198,7 +14198,7 @@
         <v>0.71</v>
       </c>
       <c r="AA75">
-        <v>2.71</v>
+        <v>2.86</v>
       </c>
       <c r="AB75">
         <v>0.86</v>
@@ -14207,7 +14207,7 @@
         <v>0.14</v>
       </c>
       <c r="AD75">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AE75">
         <v>1.33</v>
@@ -14234,22 +14234,22 @@
         <v>1</v>
       </c>
       <c r="AM75">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="AN75">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AO75">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ75">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR75">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AS75">
         <v>0.92</v>
@@ -14270,16 +14270,16 @@
         <v>1.38</v>
       </c>
       <c r="AY75">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AZ75">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="BA75">
         <v>0</v>
       </c>
       <c r="BB75">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BC75">
         <v>0.67</v>
@@ -15397,13 +15397,13 @@
         <v>157</v>
       </c>
       <c r="B82">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="C82">
         <v>0.97</v>
       </c>
       <c r="D82">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E82">
         <v>1.24</v>
@@ -15535,13 +15535,13 @@
         <v>1.38</v>
       </c>
       <c r="AV82">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AW82">
         <v>0.46</v>
       </c>
       <c r="AX82">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="AY82">
         <v>1.6</v>
@@ -15556,13 +15556,13 @@
         <v>1.33</v>
       </c>
       <c r="BC82">
-        <v>0.67</v>
+        <v>0.44</v>
       </c>
       <c r="BD82">
         <v>0.67</v>
       </c>
       <c r="BE82">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="BF82">
         <v>0.67</v>
@@ -15579,13 +15579,13 @@
         <v>158</v>
       </c>
       <c r="B83">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="C83">
         <v>0.97</v>
       </c>
       <c r="D83">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="E83">
         <v>1.24</v>
@@ -15717,13 +15717,13 @@
         <v>1.38</v>
       </c>
       <c r="AV83">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="AW83">
         <v>0.46</v>
       </c>
       <c r="AX83">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="AY83">
         <v>1.6</v>
@@ -15738,13 +15738,13 @@
         <v>1.33</v>
       </c>
       <c r="BC83">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
       <c r="BD83">
         <v>0.67</v>
       </c>
       <c r="BE83">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="BF83">
         <v>0.67</v>
@@ -16125,22 +16125,22 @@
         <v>161</v>
       </c>
       <c r="B86">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="C86">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>0.86</v>
@@ -16284,16 +16284,16 @@
         <v>1.33</v>
       </c>
       <c r="BC86">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="BD86">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="BE86">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="BF86">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="BG86">
         <v>0</v>
@@ -16307,22 +16307,22 @@
         <v>162</v>
       </c>
       <c r="B87">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E87">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
         <v>0.86</v>
@@ -16466,16 +16466,16 @@
         <v>1.33</v>
       </c>
       <c r="BC87">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="BD87">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="BE87">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="BF87">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="BG87">
         <v>0</v>
